--- a/wyniki_temp.xlsx
+++ b/wyniki_temp.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+  <si>
+    <t>runda</t>
+  </si>
   <si>
     <t>nr_pytania</t>
   </si>
@@ -37,16 +40,25 @@
     <t>Wiktoria</t>
   </si>
   <si>
-    <t>Wolisz</t>
-  </si>
-  <si>
     <t>Przeszłość</t>
   </si>
   <si>
-    <t>Wolisz jeść śniadanie w pośpiechu czy na spokojnie?</t>
-  </si>
-  <si>
-    <t>Czy zdarzało Ci się robić coś zakazanego, do czego nie przyznawałeś się rodzicom?</t>
+    <t>Lubiłeś brać udział w zabawach zespołowych?</t>
+  </si>
+  <si>
+    <t>Czy jesteś zadowolony ze swojego zachowania w dzieciństwie?</t>
+  </si>
+  <si>
+    <t>Czy lubiłeś spędzać czas z rodzeństwem?</t>
+  </si>
+  <si>
+    <t>Czy często sięgałeś po pomoc rodziców przy odrabianiu lekcji?</t>
+  </si>
+  <si>
+    <t>Jak często czułeś się zmotywowany do nauki?</t>
+  </si>
+  <si>
+    <t>Jak często pomagałeś rodzicom w domu?</t>
   </si>
 </sst>
 </file>
@@ -404,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,51 +444,164 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
